--- a/templates/项目信息试验模板4.xlsx
+++ b/templates/项目信息试验模板4.xlsx
@@ -426,7 +426,7 @@
         <v>采样数量/天</v>
       </c>
       <c r="H1" t="str">
-        <v>采样天数</v>
+        <v>采样日程</v>
       </c>
     </row>
     <row r="2">
@@ -1009,7 +1009,7 @@
         <v>采样数量/天</v>
       </c>
       <c r="G1" t="str">
-        <v>采样天数</v>
+        <v>采样日程</v>
       </c>
     </row>
     <row r="2">
